--- a/Scrum/Daily Scrum.xlsx
+++ b/Scrum/Daily Scrum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\5AHIF\Projekt_ohFound!\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ohfound\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51247996-A64C-456B-B5DD-8B9DFFFEDD82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7308BB7-A928-4F92-A8A1-6D348814F96E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{01D6B8DB-04E0-43D9-BBAD-16DE15ABA55B}"/>
+    <workbookView xWindow="5085" yWindow="2370" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="10" xr2:uid="{01D6B8DB-04E0-43D9-BBAD-16DE15ABA55B}"/>
   </bookViews>
   <sheets>
     <sheet name="Woche 1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <sheet name="Woche 5" sheetId="5" r:id="rId5"/>
     <sheet name="Woche 6" sheetId="6" r:id="rId6"/>
     <sheet name="Woche 7" sheetId="7" r:id="rId7"/>
+    <sheet name="Woche 8" sheetId="8" r:id="rId8"/>
+    <sheet name="Woche 9" sheetId="9" r:id="rId9"/>
+    <sheet name="Woche 10" sheetId="10" r:id="rId10"/>
+    <sheet name="Woche 11" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="43">
   <si>
     <t>Daily Scrum Woche 1</t>
   </si>
@@ -124,6 +128,48 @@
   </si>
   <si>
     <t>Daily Scrum Woche 7</t>
+  </si>
+  <si>
+    <t>Daily Scrum Woche 8</t>
+  </si>
+  <si>
+    <t>Präsentation bei Frau MUH</t>
+  </si>
+  <si>
+    <t>Daily Scrum Woche 9</t>
+  </si>
+  <si>
+    <t>Dokumente bearbeiten</t>
+  </si>
+  <si>
+    <t>React  App</t>
+  </si>
+  <si>
+    <t>Web Applikation</t>
+  </si>
+  <si>
+    <t>Iteration 1</t>
+  </si>
+  <si>
+    <t>JavaFX Gegenstände</t>
+  </si>
+  <si>
+    <t>Daily Scrum Woche 10</t>
+  </si>
+  <si>
+    <t>Gezeigt Frau Prof LIN/JavaFX Gegenstände</t>
+  </si>
+  <si>
+    <t>Gezeigt Frau Prof LIN/Web Applikation</t>
+  </si>
+  <si>
+    <t>Gezeigt Frau Prof LIN/React  App</t>
+  </si>
+  <si>
+    <t>Daily Scrum Woche 11</t>
+  </si>
+  <si>
+    <t>JavaFX Gegenstände ~ Add Gegenstand</t>
   </si>
 </sst>
 </file>
@@ -619,6 +665,277 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA42974C-5E0A-445B-9CA5-451FEB24CF99}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="A1:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7D494A-F948-4EDD-8A6E-CD3C233DD383}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43810</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CE730B-0B63-47D9-B980-C6645E100B22}">
   <dimension ref="A1:C15"/>
@@ -1154,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FF57F7-D259-4236-B532-BBD7F3FD53D7}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,4 +1543,212 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5398BD72-DFE8-4C19-AA02-C2207D0D3071}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43780</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6991DA59-DE7F-4410-91A2-09367F9A4216}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Scrum/Daily Scrum.xlsx
+++ b/Scrum/Daily Scrum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ohfound\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7308BB7-A928-4F92-A8A1-6D348814F96E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DDE02A-C8E8-45D4-B89C-D2AEE8B389B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="2370" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="10" xr2:uid="{01D6B8DB-04E0-43D9-BBAD-16DE15ABA55B}"/>
+    <workbookView xWindow="5775" yWindow="3060" windowWidth="21600" windowHeight="11385" firstSheet="7" activeTab="11" xr2:uid="{01D6B8DB-04E0-43D9-BBAD-16DE15ABA55B}"/>
   </bookViews>
   <sheets>
     <sheet name="Woche 1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Woche 9" sheetId="9" r:id="rId9"/>
     <sheet name="Woche 10" sheetId="10" r:id="rId10"/>
     <sheet name="Woche 11" sheetId="11" r:id="rId11"/>
+    <sheet name="Woche 12" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="46">
   <si>
     <t>Daily Scrum Woche 1</t>
   </si>
@@ -170,6 +171,15 @@
   </si>
   <si>
     <t>JavaFX Gegenstände ~ Add Gegenstand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JavaFX Gegenstände </t>
+  </si>
+  <si>
+    <t>Daily Scrum Woche 6</t>
+  </si>
+  <si>
+    <t>Daily Scrum Woche 12</t>
   </si>
 </sst>
 </file>
@@ -670,7 +680,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="A1:C18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7D494A-F948-4EDD-8A6E-CD3C233DD383}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,6 +902,142 @@
       </c>
       <c r="C12" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489C0684-6B08-4206-9DC8-AEE75A6508FB}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1393,7 +1539,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B8"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,7 +1551,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1472,7 +1618,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:C8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,7 +1774,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C9"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
